--- a/Experiments/Activation/33MeVTa/BeamOnly/BeamFoilDimensions.xlsx
+++ b/Experiments/Activation/33MeVTa/BeamOnly/BeamFoilDimensions.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J2:J6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
